--- a/4_output.xlsx
+++ b/4_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>code</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>factor_y</t>
+  </si>
+  <si>
+    <t>increase_ratio</t>
   </si>
   <si>
     <t>601009</t>
@@ -617,13 +620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,16 +729,19 @@
       <c r="AI1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:36">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>0.7427</v>
@@ -833,16 +839,19 @@
       <c r="AI2">
         <v>6.5031</v>
       </c>
+      <c r="AJ2">
+        <v>2.072110635495555</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:36">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>1.333</v>
@@ -940,16 +949,19 @@
       <c r="AI3">
         <v>6.3132</v>
       </c>
+      <c r="AJ3">
+        <v>0.9864750633981403</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:36">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>0.3019</v>
@@ -1047,16 +1059,19 @@
       <c r="AI4">
         <v>3.7933</v>
       </c>
+      <c r="AJ4">
+        <v>0.8666933146797242</v>
+      </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:36">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>0.3719</v>
@@ -1154,16 +1169,19 @@
       <c r="AI5">
         <v>3.5963</v>
       </c>
+      <c r="AJ5">
+        <v>1.142553191489362</v>
+      </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:36">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>0.652</v>
@@ -1261,16 +1279,19 @@
       <c r="AI6">
         <v>5.1999</v>
       </c>
+      <c r="AJ6">
+        <v>2.590472804834695</v>
+      </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>0.2877</v>
@@ -1368,16 +1389,19 @@
       <c r="AI7">
         <v>3.985200000000001</v>
       </c>
+      <c r="AJ7">
+        <v>2.556419415843664</v>
+      </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:36">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>0.375</v>
@@ -1475,16 +1499,19 @@
       <c r="AI8">
         <v>3.4385</v>
       </c>
+      <c r="AJ8">
+        <v>1.097256180385765</v>
+      </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:36">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>0.3238</v>
@@ -1582,16 +1609,19 @@
       <c r="AI9">
         <v>2.8471</v>
       </c>
+      <c r="AJ9">
+        <v>1.71324354657688</v>
+      </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:36">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>2.2997</v>
@@ -1689,16 +1719,19 @@
       <c r="AI10">
         <v>3.6474</v>
       </c>
+      <c r="AJ10">
+        <v>4.811085512942134</v>
+      </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:36">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>2.2997</v>
@@ -1796,16 +1829,19 @@
       <c r="AI11">
         <v>7.8651</v>
       </c>
+      <c r="AJ11">
+        <v>5.811561219845244</v>
+      </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:36">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>0.09329999999999999</v>
@@ -1903,16 +1939,19 @@
       <c r="AI12">
         <v>3.893000000000001</v>
       </c>
+      <c r="AJ12">
+        <v>3.837370242214533</v>
+      </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:36">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>0.2468</v>
@@ -2010,16 +2049,19 @@
       <c r="AI13">
         <v>4.8552</v>
       </c>
+      <c r="AJ13">
+        <v>0.7697327532628964</v>
+      </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:36">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>2.2997</v>
@@ -2117,16 +2159,19 @@
       <c r="AI14">
         <v>3.5063</v>
       </c>
+      <c r="AJ14">
+        <v>1.427098674521355</v>
+      </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:36">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>0.2635</v>
@@ -2224,16 +2269,19 @@
       <c r="AI15">
         <v>3.6599</v>
       </c>
+      <c r="AJ15">
+        <v>3.131221964005837</v>
+      </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:36">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>1.1385</v>
@@ -2331,16 +2379,19 @@
       <c r="AI16">
         <v>4.299200000000001</v>
       </c>
+      <c r="AJ16">
+        <v>1.297005988023952</v>
+      </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:36">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>2.2997</v>
@@ -2438,16 +2489,19 @@
       <c r="AI17">
         <v>8.0237</v>
       </c>
+      <c r="AJ17">
+        <v>0.1190801457194899</v>
+      </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:36">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>1.8022</v>
@@ -2545,16 +2599,19 @@
       <c r="AI18">
         <v>11.5651</v>
       </c>
+      <c r="AJ18">
+        <v>5.342654986522911</v>
+      </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:36">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>0.2471</v>
@@ -2652,16 +2709,19 @@
       <c r="AI19">
         <v>3.2358</v>
       </c>
+      <c r="AJ19">
+        <v>0.6181606519208381</v>
+      </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:36">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20">
         <v>2.2997</v>
@@ -2759,16 +2819,19 @@
       <c r="AI20">
         <v>13.7383</v>
       </c>
+      <c r="AJ20">
+        <v>1.976029502151199</v>
+      </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:36">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>2.2997</v>
@@ -2866,16 +2929,19 @@
       <c r="AI21">
         <v>10.6777</v>
       </c>
+      <c r="AJ21">
+        <v>1.693531283138918</v>
+      </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:36">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>1.5442</v>
@@ -2973,16 +3039,19 @@
       <c r="AI22">
         <v>7.3384</v>
       </c>
+      <c r="AJ22">
+        <v>-0.1009127789046652</v>
+      </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:36">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <v>0.8170000000000001</v>
@@ -3080,16 +3149,19 @@
       <c r="AI23">
         <v>4.3705</v>
       </c>
+      <c r="AJ23">
+        <v>2.536173089925625</v>
+      </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:36">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>0.2681</v>
@@ -3187,16 +3259,19 @@
       <c r="AI24">
         <v>5.3673</v>
       </c>
+      <c r="AJ24">
+        <v>-0.2091310751104565</v>
+      </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:36">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25">
         <v>0.6435999999999999</v>
@@ -3294,16 +3369,19 @@
       <c r="AI25">
         <v>4.4767</v>
       </c>
+      <c r="AJ25">
+        <v>3.148093115403665</v>
+      </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:36">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>1.306</v>
@@ -3401,16 +3479,19 @@
       <c r="AI26">
         <v>8.575500000000002</v>
       </c>
+      <c r="AJ26">
+        <v>2.853410740203193</v>
+      </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:36">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>0.07400000000000001</v>
@@ -3508,16 +3589,19 @@
       <c r="AI27">
         <v>4.0015</v>
       </c>
+      <c r="AJ27">
+        <v>2.046559612451781</v>
+      </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:36">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>0.8117</v>
@@ -3615,16 +3699,19 @@
       <c r="AI28">
         <v>5.8224</v>
       </c>
+      <c r="AJ28">
+        <v>8.798828622358034</v>
+      </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:36">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>2.2776</v>
@@ -3722,16 +3809,19 @@
       <c r="AI29">
         <v>13.7559</v>
       </c>
+      <c r="AJ29">
+        <v>1.201628755967425</v>
+      </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:36">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>0.7246</v>
@@ -3829,16 +3919,19 @@
       <c r="AI30">
         <v>2.821800000000001</v>
       </c>
+      <c r="AJ30">
+        <v>1.397707371437669</v>
+      </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:36">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>0.8773</v>
@@ -3936,16 +4029,19 @@
       <c r="AI31">
         <v>5.0938</v>
       </c>
+      <c r="AJ31">
+        <v>4.909705325763721</v>
+      </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:36">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D32">
         <v>-0.1693</v>
@@ -4043,16 +4139,19 @@
       <c r="AI32">
         <v>4.298500000000001</v>
       </c>
+      <c r="AJ32">
+        <v>0.960996749729144</v>
+      </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:36">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33">
         <v>0.0249</v>
@@ -4149,6 +4248,9 @@
       </c>
       <c r="AI33">
         <v>4.6004</v>
+      </c>
+      <c r="AJ33">
+        <v>2.460960960960961</v>
       </c>
     </row>
   </sheetData>
